--- a/biology/Botanique/Tantau/Tantau.xlsx
+++ b/biology/Botanique/Tantau/Tantau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tantau, ou plus précisément Rosen Tantau, RosenWelt Tantau, est le nom d'une entreprise allemande spécialisée dans la culture et l'obtention de rosiers. Elle a été fondée à Uetersen (Schleswig-Holstein), où se trouve toujours son siège, par Mathias Tantau, en 1906. Elle représente aujourd'hui 50 % du marché international de la vente de roses coupées avec la maison Kordes et vend plus de deux millions de plants par an.
@@ -512,7 +524,9 @@
           <t>Quelques roses célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>'Gotenhafen' (1940)
 'Märchenland' (1946)
@@ -585,7 +599,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de + en) Site officiel de la maison Tantau en allemand et en anglais
  Portail de l’Allemagne   Portail du jardinage et de l’horticulture   Portail des roses et rosiers                   </t>
